--- a/biology/Botanique/Lasiopetalum/Lasiopetalum.xlsx
+++ b/biology/Botanique/Lasiopetalum/Lasiopetalum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lasiopetalum est un genre de plantes de la famille des Malvacées contenant environ 35 espèces d'arbustes originaires d'Australie. Il est apparenté aux genres Guichenotia et Thomasia. Le plus grand nombre d'espèces pousse en Australie-Occidentale[1], où 24 espèces sont présentes, dont 8 sont endémiques à la région[2]. Les espèces vivent dans les forêts sclérophylles en plaine et les landes[1]. 
-Le genre a été défini en 1798 par James Edward Smith qui ne désigna pas d'espèce type[3]. Le nom du genre est dérivé des mots grecs lasios « poilu » et Petalon « pétale » qui font référence à son calice velu[1]. Lasiopetalum était auparavant classé dans la famille des Sterculiaceae mais cette famille a été placée dans celle élargie des Malvaceae. Dans la famille, il donne son nom à sa tribu, les Lasiopetaleae, qui contient une dizaine de genres, qui sont principalement situés en Australie. Il est étroitement lié au genre Guichenotia bien que la relation exacte et la délimitation du genre ne soient pas claires et nécessitent de nouvelles recherches[4]. 
-La plupart des espèces sont des arbustes multi-tiges étalés ou rampants. Tiges, feuilles et fleurs portent de fins poils. Les feuilles sont généralement alternes. Les capitules sont soit axillaires soit terminaux. Les fleurs sont petites, les calices à cinq lobes sont velus avec de minuscules pétales[1]. 
-Le genre est rarement cultivé, bien que de nombreuses espèces ont en période de croissance leurs nouveaux poils rouges attractifs et plusieurs espèces ont été cultivées en Angleterre au XIXe siècle[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lasiopetalum est un genre de plantes de la famille des Malvacées contenant environ 35 espèces d'arbustes originaires d'Australie. Il est apparenté aux genres Guichenotia et Thomasia. Le plus grand nombre d'espèces pousse en Australie-Occidentale, où 24 espèces sont présentes, dont 8 sont endémiques à la région. Les espèces vivent dans les forêts sclérophylles en plaine et les landes. 
+Le genre a été défini en 1798 par James Edward Smith qui ne désigna pas d'espèce type. Le nom du genre est dérivé des mots grecs lasios « poilu » et Petalon « pétale » qui font référence à son calice velu. Lasiopetalum était auparavant classé dans la famille des Sterculiaceae mais cette famille a été placée dans celle élargie des Malvaceae. Dans la famille, il donne son nom à sa tribu, les Lasiopetaleae, qui contient une dizaine de genres, qui sont principalement situés en Australie. Il est étroitement lié au genre Guichenotia bien que la relation exacte et la délimitation du genre ne soient pas claires et nécessitent de nouvelles recherches. 
+La plupart des espèces sont des arbustes multi-tiges étalés ou rampants. Tiges, feuilles et fleurs portent de fins poils. Les feuilles sont généralement alternes. Les capitules sont soit axillaires soit terminaux. Les fleurs sont petites, les calices à cinq lobes sont velus avec de minuscules pétales. 
+Le genre est rarement cultivé, bien que de nombreuses espèces ont en période de croissance leurs nouveaux poils rouges attractifs et plusieurs espèces ont été cultivées en Angleterre au XIXe siècle. 
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lasiopetalum angustifolium W.Fitzg.
 Lasiopetalum baueri Steetz
@@ -579,9 +593,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (31 août 2010)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (31 août 2010) :
 Lasiopetalum molle
 Lasiopetalum sp. Chase 2195</t>
         </is>
